--- a/Data_worldCup/Selecciones_mundial2022.xlsx
+++ b/Data_worldCup/Selecciones_mundial2022.xlsx
@@ -1,84 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelozurita/Repositorios_GitHub/Group_Slytheryn/Data_worldCup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://espolec-my.sharepoint.com/personal/lfromero_espol_edu_ec/Documents/ESPOL/Programacion/Repositorios/Group_Slytheryn/Data_worldCup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{123657CF-8A7F-C949-B8C6-08E024BA0F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{123657CF-8A7F-C949-B8C6-08E024BA0F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE1FF74-A3A2-4724-975A-B27FB52BF7C8}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1420" windowWidth="28040" windowHeight="17440" firstSheet="16" activeTab="31" xr2:uid="{1F44A4D2-116B-2E40-9D2D-C3E144EEDDF7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{1F44A4D2-116B-2E40-9D2D-C3E144EEDDF7}"/>
   </bookViews>
   <sheets>
-    <sheet name="ECUADOR" sheetId="1" r:id="rId1"/>
-    <sheet name="PAISES BAJOS" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
-    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
-    <sheet name="Hoja8" sheetId="8" r:id="rId8"/>
-    <sheet name="Hoja9" sheetId="9" r:id="rId9"/>
-    <sheet name="Hoja10" sheetId="10" r:id="rId10"/>
-    <sheet name="Hoja11" sheetId="11" r:id="rId11"/>
-    <sheet name="Hoja12" sheetId="12" r:id="rId12"/>
-    <sheet name="Hoja13" sheetId="13" r:id="rId13"/>
-    <sheet name="Hoja14" sheetId="14" r:id="rId14"/>
-    <sheet name="Hoja15" sheetId="15" r:id="rId15"/>
-    <sheet name="Hoja16" sheetId="16" r:id="rId16"/>
-    <sheet name="Hoja17" sheetId="17" r:id="rId17"/>
-    <sheet name="Hoja18" sheetId="18" r:id="rId18"/>
-    <sheet name="Hoja19" sheetId="19" r:id="rId19"/>
-    <sheet name="Hoja20" sheetId="20" r:id="rId20"/>
-    <sheet name="Hoja21" sheetId="21" r:id="rId21"/>
-    <sheet name="Hoja22" sheetId="22" r:id="rId22"/>
-    <sheet name="Hoja23" sheetId="23" r:id="rId23"/>
-    <sheet name="Hoja24" sheetId="24" r:id="rId24"/>
-    <sheet name="Hoja25" sheetId="25" r:id="rId25"/>
-    <sheet name="Hoja26" sheetId="26" r:id="rId26"/>
-    <sheet name="Hoja27" sheetId="27" r:id="rId27"/>
-    <sheet name="Hoja28" sheetId="28" r:id="rId28"/>
-    <sheet name="Hoja29" sheetId="29" r:id="rId29"/>
-    <sheet name="Hoja30" sheetId="30" r:id="rId30"/>
-    <sheet name="Hoja31" sheetId="31" r:id="rId31"/>
-    <sheet name="Hoja32" sheetId="32" r:id="rId32"/>
+    <sheet name="Ecuador" sheetId="1" r:id="rId1"/>
+    <sheet name="Netherlands" sheetId="2" r:id="rId2"/>
+    <sheet name="Qatar" sheetId="3" r:id="rId3"/>
+    <sheet name="Senegal" sheetId="4" r:id="rId4"/>
+    <sheet name="United States" sheetId="5" r:id="rId5"/>
+    <sheet name="Wales" sheetId="6" r:id="rId6"/>
+    <sheet name="England" sheetId="7" r:id="rId7"/>
+    <sheet name="IR Iran" sheetId="8" r:id="rId8"/>
+    <sheet name="Saudi Arabia" sheetId="9" r:id="rId9"/>
+    <sheet name="Argentina" sheetId="10" r:id="rId10"/>
+    <sheet name="Mexico" sheetId="11" r:id="rId11"/>
+    <sheet name="Poland" sheetId="12" r:id="rId12"/>
+    <sheet name="Australia" sheetId="13" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="14" r:id="rId14"/>
+    <sheet name="France" sheetId="15" r:id="rId15"/>
+    <sheet name="Tunisia" sheetId="16" r:id="rId16"/>
+    <sheet name="Germany" sheetId="17" r:id="rId17"/>
+    <sheet name="Costa Rica" sheetId="18" r:id="rId18"/>
+    <sheet name="Spain" sheetId="19" r:id="rId19"/>
+    <sheet name="Japan" sheetId="20" r:id="rId20"/>
+    <sheet name="Belgium" sheetId="21" r:id="rId21"/>
+    <sheet name="Canada" sheetId="22" r:id="rId22"/>
+    <sheet name="Croatia" sheetId="23" r:id="rId23"/>
+    <sheet name="Morocco" sheetId="24" r:id="rId24"/>
+    <sheet name="Brazil" sheetId="25" r:id="rId25"/>
+    <sheet name="Cameroon" sheetId="26" r:id="rId26"/>
+    <sheet name="Serbia" sheetId="27" r:id="rId27"/>
+    <sheet name="Switzerland" sheetId="28" r:id="rId28"/>
+    <sheet name="Korea Republic" sheetId="29" r:id="rId29"/>
+    <sheet name="Ghana" sheetId="30" r:id="rId30"/>
+    <sheet name="Portugal" sheetId="31" r:id="rId31"/>
+    <sheet name="Uruguay" sheetId="32" r:id="rId32"/>
   </sheets>
   <definedNames>
-    <definedName name="datos1" localSheetId="0">ECUADOR!$A$1:$C$27</definedName>
-    <definedName name="datos10" localSheetId="9">Hoja10!$A$1:$C$27</definedName>
-    <definedName name="datos11" localSheetId="10">Hoja11!$A$1:$C$27</definedName>
-    <definedName name="datos12" localSheetId="11">Hoja12!$A$1:$C$27</definedName>
-    <definedName name="datos13" localSheetId="12">Hoja13!$A$1:$C$27</definedName>
-    <definedName name="datos14" localSheetId="13">Hoja14!$A$1:$C$27</definedName>
-    <definedName name="datos15" localSheetId="14">Hoja15!$A$1:$C$26</definedName>
-    <definedName name="datos16" localSheetId="15">Hoja16!$A$1:$C$27</definedName>
-    <definedName name="datos17" localSheetId="16">Hoja17!$A$1:$C$27</definedName>
-    <definedName name="datos18" localSheetId="17">Hoja18!$A$1:$C$27</definedName>
-    <definedName name="datos19" localSheetId="18">Hoja19!$A$1:$C$27</definedName>
-    <definedName name="datos2" localSheetId="1">'PAISES BAJOS'!$A$1:$C$27</definedName>
-    <definedName name="datos20" localSheetId="19">Hoja20!$A$1:$C$27</definedName>
-    <definedName name="datos21" localSheetId="20">Hoja21!$A$1:$C$27</definedName>
-    <definedName name="datos22" localSheetId="21">Hoja22!$A$1:$C$27</definedName>
-    <definedName name="datos24" localSheetId="22">Hoja23!$A$1:$C$27</definedName>
-    <definedName name="datos24" localSheetId="23">Hoja24!$A$1:$C$27</definedName>
-    <definedName name="datos25" localSheetId="24">Hoja25!$A$1:$C$27</definedName>
-    <definedName name="datos26" localSheetId="25">Hoja26!$A$1:$C$27</definedName>
-    <definedName name="datos27" localSheetId="26">Hoja27!$A$1:$C$27</definedName>
-    <definedName name="datos28" localSheetId="27">Hoja28!$A$1:$C$27</definedName>
-    <definedName name="datos29" localSheetId="28">Hoja29!$A$1:$C$27</definedName>
-    <definedName name="datos3" localSheetId="2">Hoja3!$A$1:$C$27</definedName>
-    <definedName name="datos30" localSheetId="29">Hoja30!$A$1:$C$27</definedName>
-    <definedName name="datos31" localSheetId="30">Hoja31!$A$1:$C$27</definedName>
-    <definedName name="datos32" localSheetId="31">Hoja32!$A$1:$C$27</definedName>
-    <definedName name="datos4" localSheetId="3">Hoja4!$A$1:$C$27</definedName>
-    <definedName name="datos5" localSheetId="4">Hoja5!$A$1:$C$27</definedName>
-    <definedName name="datos6" localSheetId="5">Hoja6!$A$1:$C$27</definedName>
-    <definedName name="datos7" localSheetId="6">Hoja7!$A$1:$C$27</definedName>
-    <definedName name="datos8" localSheetId="7">Hoja8!$A$1:$C$26</definedName>
-    <definedName name="datos9" localSheetId="8">Hoja9!$A$1:$C$27</definedName>
+    <definedName name="datos1" localSheetId="0">Ecuador!$A$1:$C$27</definedName>
+    <definedName name="datos10" localSheetId="9">Argentina!$A$1:$C$27</definedName>
+    <definedName name="datos11" localSheetId="10">Mexico!$A$1:$C$27</definedName>
+    <definedName name="datos12" localSheetId="11">Poland!$A$1:$C$27</definedName>
+    <definedName name="datos13" localSheetId="12">Australia!$A$1:$C$27</definedName>
+    <definedName name="datos14" localSheetId="13">Denmark!$A$1:$C$27</definedName>
+    <definedName name="datos15" localSheetId="14">France!$A$1:$C$26</definedName>
+    <definedName name="datos16" localSheetId="15">Tunisia!$A$1:$C$27</definedName>
+    <definedName name="datos17" localSheetId="16">Germany!$A$1:$C$27</definedName>
+    <definedName name="datos18" localSheetId="17">'Costa Rica'!$A$1:$C$27</definedName>
+    <definedName name="datos19" localSheetId="18">Spain!$A$1:$C$27</definedName>
+    <definedName name="datos2" localSheetId="1">Netherlands!$A$1:$C$27</definedName>
+    <definedName name="datos20" localSheetId="19">Japan!$A$1:$C$27</definedName>
+    <definedName name="datos21" localSheetId="20">Belgium!$A$1:$C$27</definedName>
+    <definedName name="datos22" localSheetId="21">Canada!$A$1:$C$27</definedName>
+    <definedName name="datos24" localSheetId="22">Croatia!$A$1:$C$27</definedName>
+    <definedName name="datos24" localSheetId="23">Morocco!$A$1:$C$27</definedName>
+    <definedName name="datos25" localSheetId="24">Brazil!$A$1:$C$27</definedName>
+    <definedName name="datos26" localSheetId="25">Cameroon!$A$1:$C$27</definedName>
+    <definedName name="datos27" localSheetId="26">Serbia!$A$1:$C$27</definedName>
+    <definedName name="datos28" localSheetId="27">Switzerland!$A$1:$C$27</definedName>
+    <definedName name="datos29" localSheetId="28">'Korea Republic'!$A$1:$C$27</definedName>
+    <definedName name="datos3" localSheetId="2">Qatar!$A$1:$C$27</definedName>
+    <definedName name="datos30" localSheetId="29">Ghana!$A$1:$C$27</definedName>
+    <definedName name="datos31" localSheetId="30">Portugal!$A$1:$C$27</definedName>
+    <definedName name="datos32" localSheetId="31">Uruguay!$A$1:$C$27</definedName>
+    <definedName name="datos4" localSheetId="3">Senegal!$A$1:$C$27</definedName>
+    <definedName name="datos5" localSheetId="4">'United States'!$A$1:$C$27</definedName>
+    <definedName name="datos6" localSheetId="5">Wales!$A$1:$C$27</definedName>
+    <definedName name="datos7" localSheetId="6">England!$A$1:$C$27</definedName>
+    <definedName name="datos8" localSheetId="7">'IR Iran'!$A$1:$C$26</definedName>
+    <definedName name="datos9" localSheetId="8">'Saudi Arabia'!$A$1:$C$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -4463,14 +4463,14 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -4776,16 +4776,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50A9508-08DE-5F43-866C-8004D620FF0A}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>373</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>376</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>377</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>379</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>381</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>383</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>385</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>386</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>387</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>388</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>389</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>392</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>393</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>394</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>395</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>396</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>397</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>398</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>399</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>400</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>402</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>404</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>405</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>406</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>408</v>
       </c>
@@ -5093,14 +5093,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>411</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>413</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>415</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>417</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>421</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>423</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>425</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>427</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>428</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>430</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>431</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>433</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>434</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>435</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>436</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>438</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>439</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>440</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>442</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>443</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>444</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>445</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>447</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>449</v>
       </c>
@@ -5408,14 +5408,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>450</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>452</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>454</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>455</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>458</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>460</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>462</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>464</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>465</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>467</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>468</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>470</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>474</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>476</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>478</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>480</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>482</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>484</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>485</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>486</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>488</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>489</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>490</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>491</v>
       </c>
@@ -5723,14 +5723,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>495</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>497</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>499</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>500</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>502</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>504</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>506</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>508</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>510</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>512</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>515</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>516</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>518</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>520</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>522</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>523</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>525</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>527</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>529</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>531</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>532</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>534</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>536</v>
       </c>
@@ -6038,14 +6038,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>537</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>538</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>540</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>542</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>543</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>544</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>546</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>548</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>549</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>551</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>552</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>554</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>556</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>557</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>558</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>560</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>561</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>562</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>563</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>565</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>567</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>568</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>569</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>570</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>572</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>574</v>
       </c>
@@ -6353,14 +6353,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>576</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>577</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>579</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>581</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>582</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>583</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>584</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>585</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>586</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>588</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>589</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>590</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>591</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>593</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>594</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>595</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>596</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>597</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>599</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>600</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>602</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>603</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>604</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>605</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>607</v>
       </c>
@@ -6657,14 +6657,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>608</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>610</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>612</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>614</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>616</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>618</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>620</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>622</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>624</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>625</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>627</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>628</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>630</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>632</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>634</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>636</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>638</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>639</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>641</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>643</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>645</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>647</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>648</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>650</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>652</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>654</v>
       </c>
@@ -6972,14 +6972,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>656</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>658</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>659</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>661</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>663</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>665</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>666</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>667</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>669</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>670</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>671</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>673</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>674</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>675</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>676</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>677</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>678</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>679</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>680</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>682</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>683</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>684</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>685</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>686</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>688</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>689</v>
       </c>
@@ -7287,14 +7287,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>690</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>691</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>693</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>695</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>697</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>699</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>701</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>703</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>705</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>706</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>708</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>710</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>712</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>713</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>715</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>716</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>718</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>719</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>720</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>721</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>722</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>724</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>725</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>726</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>727</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>728</v>
       </c>
@@ -7602,14 +7602,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>729</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>731</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>732</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>733</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>735</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>737</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>738</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>740</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>742</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>744</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>746</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>748</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>749</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>750</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>751</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>752</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>754</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>755</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>757</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>761</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>762</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>763</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>764</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>765</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>767</v>
       </c>
@@ -7915,18 +7915,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98A52C0-EEDB-9B42-88F2-6E96399AE67C}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -8234,14 +8234,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>768</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>770</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>772</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>774</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>776</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>778</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>780</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>782</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>783</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>784</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>786</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>787</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>789</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>790</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>792</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>794</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>796</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>798</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>799</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>801</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>802</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>804</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>806</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>807</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>809</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>811</v>
       </c>
@@ -8549,14 +8549,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>813</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>814</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>816</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>817</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>819</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>821</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>822</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>824</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>825</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>826</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>827</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>828</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>829</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>830</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>831</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>832</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>833</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>834</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>835</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>836</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>837</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>838</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>839</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>840</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>841</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>842</v>
       </c>
@@ -8864,14 +8864,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>843</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>845</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>847</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>849</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>851</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>853</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>854</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>856</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>857</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>859</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>861</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>863</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>864</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>865</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>867</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>868</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>869</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>871</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>872</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>874</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>876</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>877</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>879</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>880</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>881</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>882</v>
       </c>
@@ -9179,14 +9179,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>884</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>885</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>886</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>888</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>890</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>891</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>892</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>893</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>895</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>896</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>897</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>899</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>900</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>902</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>903</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>905</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>906</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>907</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>908</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>909</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>910</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>912</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>914</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>915</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>917</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>919</v>
       </c>
@@ -9494,14 +9494,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>884</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>885</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>886</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>888</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>890</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>891</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>892</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>893</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>895</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>896</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>897</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>899</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>900</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>902</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>903</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>905</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>906</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>907</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>908</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>909</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>910</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>912</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>914</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>915</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>917</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>919</v>
       </c>
@@ -9809,14 +9809,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>921</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>922</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>923</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>925</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>927</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>928</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>929</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>930</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>931</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>932</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>933</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>934</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>935</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>936</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>937</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>939</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>941</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>942</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>943</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>944</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>945</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>946</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>947</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>948</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>949</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>950</v>
       </c>
@@ -10124,14 +10124,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>951</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>952</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>953</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>955</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>957</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>959</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>961</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>962</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>964</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>966</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>967</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>969</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>971</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>972</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>973</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>975</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>976</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>978</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>980</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>982</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>984</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>985</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>986</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>987</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>988</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>990</v>
       </c>
@@ -10439,14 +10439,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>991</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>993</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>995</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>997</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>998</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1000</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1002</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1004</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1006</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1008</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1010</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1011</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1013</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1014</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1016</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1018</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1020</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1022</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1023</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1024</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1026</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1028</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1030</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1031</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1032</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1034</v>
       </c>
@@ -10754,14 +10754,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1035</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1036</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1037</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1038</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1040</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1042</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1043</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1044</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1045</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1047</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1048</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1050</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1051</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1052</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1053</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1054</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1056</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1058</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1060</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1062</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1063</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1065</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1066</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1067</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1068</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1069</v>
       </c>
@@ -11069,14 +11069,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1070</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1072</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1074</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1076</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1077</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1078</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1080</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1081</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1083</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1084</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1085</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1087</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1089</v>
       </c>
@@ -11230,7 +11230,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1090</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1092</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1093</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1095</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1097</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1098</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1099</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1101</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1102</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1103</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1104</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1106</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1107</v>
       </c>
@@ -11382,18 +11382,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4063EBC9-F5FD-514F-9769-680D74335386}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -11701,14 +11701,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1108</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1110</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1112</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1114</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1116</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1118</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1119</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1121</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1123</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1124</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1125</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1127</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1128</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1130</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1131</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1133</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1134</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1136</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1138</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1139</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1140</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1142</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1143</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1145</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1147</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1149</v>
       </c>
@@ -12014,16 +12014,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F913842B-5426-9942-9954-1E33A2471E38}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12034,7 +12036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1150</v>
       </c>
@@ -12045,7 +12047,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1151</v>
       </c>
@@ -12056,7 +12058,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1152</v>
       </c>
@@ -12067,7 +12069,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1153</v>
       </c>
@@ -12078,7 +12080,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1154</v>
       </c>
@@ -12089,7 +12091,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1155</v>
       </c>
@@ -12100,7 +12102,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1156</v>
       </c>
@@ -12111,7 +12113,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1157</v>
       </c>
@@ -12122,7 +12124,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1158</v>
       </c>
@@ -12133,7 +12135,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1160</v>
       </c>
@@ -12144,7 +12146,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1161</v>
       </c>
@@ -12155,7 +12157,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1162</v>
       </c>
@@ -12166,7 +12168,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1163</v>
       </c>
@@ -12177,7 +12179,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1164</v>
       </c>
@@ -12188,7 +12190,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1165</v>
       </c>
@@ -12199,7 +12201,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1166</v>
       </c>
@@ -12210,7 +12212,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1167</v>
       </c>
@@ -12221,7 +12223,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1168</v>
       </c>
@@ -12232,7 +12234,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1169</v>
       </c>
@@ -12243,7 +12245,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1170</v>
       </c>
@@ -12254,7 +12256,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1171</v>
       </c>
@@ -12265,7 +12267,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1172</v>
       </c>
@@ -12276,7 +12278,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1173</v>
       </c>
@@ -12287,7 +12289,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1174</v>
       </c>
@@ -12298,7 +12300,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1176</v>
       </c>
@@ -12309,7 +12311,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1178</v>
       </c>
@@ -12329,16 +12331,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E622FC46-CD29-0E4B-8298-C3BE5E209CE1}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12349,7 +12353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1179</v>
       </c>
@@ -12360,7 +12364,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1180</v>
       </c>
@@ -12371,7 +12375,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1182</v>
       </c>
@@ -12382,7 +12386,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1184</v>
       </c>
@@ -12393,7 +12397,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1185</v>
       </c>
@@ -12404,7 +12408,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1187</v>
       </c>
@@ -12415,7 +12419,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1189</v>
       </c>
@@ -12426,7 +12430,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1191</v>
       </c>
@@ -12437,7 +12441,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1193</v>
       </c>
@@ -12448,7 +12452,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1195</v>
       </c>
@@ -12459,7 +12463,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1196</v>
       </c>
@@ -12470,7 +12474,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1197</v>
       </c>
@@ -12481,7 +12485,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1198</v>
       </c>
@@ -12492,7 +12496,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1199</v>
       </c>
@@ -12503,7 +12507,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1200</v>
       </c>
@@ -12514,7 +12518,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1202</v>
       </c>
@@ -12525,7 +12529,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1203</v>
       </c>
@@ -12536,7 +12540,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1204</v>
       </c>
@@ -12547,7 +12551,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1205</v>
       </c>
@@ -12558,7 +12562,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1207</v>
       </c>
@@ -12569,7 +12573,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1209</v>
       </c>
@@ -12580,7 +12584,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1210</v>
       </c>
@@ -12591,7 +12595,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1211</v>
       </c>
@@ -12602,7 +12606,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1213</v>
       </c>
@@ -12613,7 +12617,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1214</v>
       </c>
@@ -12624,7 +12628,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1215</v>
       </c>
@@ -12644,18 +12648,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2C5799-00D5-4D4D-B806-4F4FED492AF9}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -12677,7 +12681,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -12688,7 +12692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -12699,7 +12703,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -12710,7 +12714,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -12721,7 +12725,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -12732,7 +12736,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -12743,7 +12747,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -12754,7 +12758,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -12765,7 +12769,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -12776,7 +12780,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -12787,7 +12791,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -12798,7 +12802,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>151</v>
       </c>
@@ -12809,7 +12813,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -12820,7 +12824,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -12831,7 +12835,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>157</v>
       </c>
@@ -12842,7 +12846,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -12853,7 +12857,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -12864,7 +12868,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -12875,7 +12879,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -12886,7 +12890,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -12897,7 +12901,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -12908,7 +12912,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -12919,7 +12923,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -12930,7 +12934,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -12941,7 +12945,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -12961,16 +12965,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70016845-5354-4E4B-89AA-26171578B32B}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12981,7 +12985,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -12992,7 +12996,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -13003,7 +13007,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -13014,7 +13018,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -13025,7 +13029,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -13036,7 +13040,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -13047,7 +13051,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -13058,7 +13062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -13069,7 +13073,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>191</v>
       </c>
@@ -13080,7 +13084,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -13091,7 +13095,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -13102,7 +13106,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -13113,7 +13117,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>197</v>
       </c>
@@ -13124,7 +13128,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>199</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>201</v>
       </c>
@@ -13146,7 +13150,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>202</v>
       </c>
@@ -13157,7 +13161,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>204</v>
       </c>
@@ -13168,7 +13172,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -13179,7 +13183,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -13190,7 +13194,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -13201,7 +13205,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>212</v>
       </c>
@@ -13212,7 +13216,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>213</v>
       </c>
@@ -13223,7 +13227,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>214</v>
       </c>
@@ -13234,7 +13238,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>216</v>
       </c>
@@ -13245,7 +13249,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -13256,7 +13260,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -13276,16 +13280,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AC6503-06C2-6844-8F99-42095C45A771}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13296,7 +13300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -13307,7 +13311,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -13318,7 +13322,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>225</v>
       </c>
@@ -13329,7 +13333,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>226</v>
       </c>
@@ -13340,7 +13344,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -13351,7 +13355,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>229</v>
       </c>
@@ -13362,7 +13366,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>230</v>
       </c>
@@ -13373,7 +13377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>231</v>
       </c>
@@ -13384,7 +13388,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>233</v>
       </c>
@@ -13395,7 +13399,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -13406,7 +13410,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>237</v>
       </c>
@@ -13417,7 +13421,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>238</v>
       </c>
@@ -13428,7 +13432,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>240</v>
       </c>
@@ -13439,7 +13443,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>242</v>
       </c>
@@ -13450,7 +13454,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>244</v>
       </c>
@@ -13461,7 +13465,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>246</v>
       </c>
@@ -13472,7 +13476,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>248</v>
       </c>
@@ -13483,7 +13487,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>250</v>
       </c>
@@ -13494,7 +13498,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>252</v>
       </c>
@@ -13505,7 +13509,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>253</v>
       </c>
@@ -13516,7 +13520,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>255</v>
       </c>
@@ -13527,7 +13531,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>257</v>
       </c>
@@ -13538,7 +13542,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>259</v>
       </c>
@@ -13549,7 +13553,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>261</v>
       </c>
@@ -13560,7 +13564,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>262</v>
       </c>
@@ -13571,7 +13575,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>263</v>
       </c>
@@ -13591,16 +13595,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C2BF3C-F441-C744-ABBA-7C59250F2350}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13611,7 +13615,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -13622,7 +13626,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>267</v>
       </c>
@@ -13633,7 +13637,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>269</v>
       </c>
@@ -13644,7 +13648,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>271</v>
       </c>
@@ -13655,7 +13659,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>273</v>
       </c>
@@ -13666,7 +13670,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>274</v>
       </c>
@@ -13677,7 +13681,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>276</v>
       </c>
@@ -13688,7 +13692,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -13699,7 +13703,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -13710,7 +13714,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -13721,7 +13725,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>282</v>
       </c>
@@ -13732,7 +13736,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -13743,7 +13747,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>284</v>
       </c>
@@ -13754,7 +13758,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>285</v>
       </c>
@@ -13765,7 +13769,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -13776,7 +13780,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -13787,7 +13791,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>290</v>
       </c>
@@ -13798,7 +13802,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>291</v>
       </c>
@@ -13809,7 +13813,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>292</v>
       </c>
@@ -13820,7 +13824,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>294</v>
       </c>
@@ -13831,7 +13835,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>295</v>
       </c>
@@ -13842,7 +13846,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>296</v>
       </c>
@@ -13853,7 +13857,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>297</v>
       </c>
@@ -13864,7 +13868,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>298</v>
       </c>
@@ -13875,7 +13879,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>299</v>
       </c>
@@ -13886,7 +13890,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -13906,16 +13910,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146E1922-0B35-9F42-BC1B-F8EFC80227D9}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13926,7 +13930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -13937,7 +13941,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -13948,7 +13952,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>305</v>
       </c>
@@ -13959,7 +13963,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>307</v>
       </c>
@@ -13970,7 +13974,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>309</v>
       </c>
@@ -13981,7 +13985,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>311</v>
       </c>
@@ -13992,7 +13996,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>313</v>
       </c>
@@ -14003,7 +14007,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>314</v>
       </c>
@@ -14014,7 +14018,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>315</v>
       </c>
@@ -14025,7 +14029,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>317</v>
       </c>
@@ -14036,7 +14040,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>319</v>
       </c>
@@ -14047,7 +14051,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -14058,7 +14062,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>321</v>
       </c>
@@ -14069,7 +14073,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>322</v>
       </c>
@@ -14080,7 +14084,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>324</v>
       </c>
@@ -14091,7 +14095,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>325</v>
       </c>
@@ -14102,7 +14106,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -14113,7 +14117,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>328</v>
       </c>
@@ -14124,7 +14128,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>330</v>
       </c>
@@ -14135,7 +14139,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>331</v>
       </c>
@@ -14146,7 +14150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>332</v>
       </c>
@@ -14157,7 +14161,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>334</v>
       </c>
@@ -14168,7 +14172,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>335</v>
       </c>
@@ -14179,7 +14183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>336</v>
       </c>
@@ -14190,7 +14194,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>338</v>
       </c>
@@ -14210,16 +14214,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB89A1E5-4D8B-7A47-9690-F20009ADD568}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14230,7 +14234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>340</v>
       </c>
@@ -14241,7 +14245,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>342</v>
       </c>
@@ -14252,7 +14256,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>344</v>
       </c>
@@ -14263,7 +14267,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>346</v>
       </c>
@@ -14274,7 +14278,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>347</v>
       </c>
@@ -14285,7 +14289,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>348</v>
       </c>
@@ -14296,7 +14300,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -14307,7 +14311,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>350</v>
       </c>
@@ -14318,7 +14322,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>351</v>
       </c>
@@ -14329,7 +14333,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>352</v>
       </c>
@@ -14340,7 +14344,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>354</v>
       </c>
@@ -14351,7 +14355,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>355</v>
       </c>
@@ -14362,7 +14366,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>356</v>
       </c>
@@ -14373,7 +14377,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>357</v>
       </c>
@@ -14384,7 +14388,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>358</v>
       </c>
@@ -14395,7 +14399,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>359</v>
       </c>
@@ -14406,7 +14410,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>360</v>
       </c>
@@ -14417,7 +14421,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>361</v>
       </c>
@@ -14428,7 +14432,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>362</v>
       </c>
@@ -14439,7 +14443,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>363</v>
       </c>
@@ -14450,7 +14454,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>364</v>
       </c>
@@ -14461,7 +14465,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -14472,7 +14476,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>368</v>
       </c>
@@ -14483,7 +14487,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>370</v>
       </c>
@@ -14494,7 +14498,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>371</v>
       </c>
@@ -14505,7 +14509,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>372</v>
       </c>

--- a/Data_worldCup/Selecciones_mundial2022.xlsx
+++ b/Data_worldCup/Selecciones_mundial2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelozurita/Repositorios_GitHub/Group_Slytheryn/Data_worldCup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C117B4C-53BB-574D-AEB6-E6DDB1AFA858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7970FE79-044A-2E4C-8B7E-E1D037551925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32620" windowHeight="20500" activeTab="1" xr2:uid="{1F44A4D2-116B-2E40-9D2D-C3E144EEDDF7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{1F44A4D2-116B-2E40-9D2D-C3E144EEDDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecuador" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
     <sheet name="Argentina" sheetId="10" r:id="rId11"/>
     <sheet name="Mexico" sheetId="11" r:id="rId12"/>
     <sheet name="Poland" sheetId="12" r:id="rId13"/>
-    <sheet name="Australia" sheetId="13" r:id="rId14"/>
-    <sheet name="Denmark" sheetId="14" r:id="rId15"/>
-    <sheet name="France" sheetId="15" r:id="rId16"/>
+    <sheet name="France" sheetId="15" r:id="rId14"/>
+    <sheet name="Australia" sheetId="13" r:id="rId15"/>
+    <sheet name="Denmark" sheetId="14" r:id="rId16"/>
     <sheet name="Tunisia" sheetId="16" r:id="rId17"/>
     <sheet name="Germany" sheetId="17" r:id="rId18"/>
     <sheet name="Costa Rica" sheetId="18" r:id="rId19"/>
@@ -52,9 +52,9 @@
     <definedName name="datos10" localSheetId="10">Argentina!$A$1:$C$27</definedName>
     <definedName name="datos11" localSheetId="11">Mexico!$A$1:$C$27</definedName>
     <definedName name="datos12" localSheetId="12">Poland!$A$1:$C$27</definedName>
-    <definedName name="datos13" localSheetId="13">Australia!$A$1:$C$27</definedName>
-    <definedName name="datos14" localSheetId="14">Denmark!$A$1:$C$27</definedName>
-    <definedName name="datos15" localSheetId="15">France!$A$1:$C$26</definedName>
+    <definedName name="datos13" localSheetId="14">Australia!$A$1:$C$27</definedName>
+    <definedName name="datos14" localSheetId="15">Denmark!$A$1:$C$27</definedName>
+    <definedName name="datos15" localSheetId="13">France!$A$1:$C$26</definedName>
     <definedName name="datos16" localSheetId="16">Tunisia!$A$1:$C$27</definedName>
     <definedName name="datos17" localSheetId="17">Germany!$A$1:$C$27</definedName>
     <definedName name="datos18" localSheetId="18">'Costa Rica'!$A$1:$C$27</definedName>
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="1342">
   <si>
     <t>Jugador</t>
   </si>
@@ -3996,116 +3996,392 @@
     <t>PAIS</t>
   </si>
   <si>
-    <t>1442232928.jpg</t>
-  </si>
-  <si>
-    <t>DT France</t>
-  </si>
-  <si>
-    <t>.jpg</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>1442232958.jpg</t>
-  </si>
-  <si>
-    <t>1442232994.jpg</t>
-  </si>
-  <si>
-    <t>1442233046.jpg</t>
-  </si>
-  <si>
-    <t>1442233076.jpg</t>
-  </si>
-  <si>
-    <t>1442233129.jpg</t>
-  </si>
-  <si>
-    <t>Randal Kolo Muani</t>
-  </si>
-  <si>
-    <t>1442233170.jpg</t>
-  </si>
-  <si>
-    <t>1442233207.jpg</t>
-  </si>
-  <si>
-    <t>1442233249.jpg</t>
-  </si>
-  <si>
-    <t>1442233272.jpg</t>
-  </si>
-  <si>
-    <t>1442233324.jpg</t>
-  </si>
-  <si>
-    <t>1442233372.jpg</t>
-  </si>
-  <si>
-    <t>Axel Disasi</t>
-  </si>
-  <si>
-    <t>1442233410.jpg</t>
-  </si>
-  <si>
-    <t>1442233458.jpg</t>
-  </si>
-  <si>
-    <t>1442233546.jpg</t>
-  </si>
-  <si>
-    <t>1442233625.jpg</t>
-  </si>
-  <si>
-    <t>1442233694.jpg</t>
-  </si>
-  <si>
-    <t>1442233735.jpg</t>
-  </si>
-  <si>
-    <t>1442233766.jpg</t>
-  </si>
-  <si>
-    <t>1442233818.jpg</t>
-  </si>
-  <si>
-    <t>1442233954.jpg</t>
-  </si>
-  <si>
-    <t>1442234000.jpg</t>
-  </si>
-  <si>
-    <t>1442234094.jpg</t>
-  </si>
-  <si>
-    <t>1442234308.jpg</t>
-  </si>
-  <si>
-    <t>Karim Benzema</t>
-  </si>
-  <si>
-    <t>1442234382.jpg</t>
-  </si>
-  <si>
-    <t>1442234453.jpg</t>
-  </si>
-  <si>
-    <t>Empty-field.jpg</t>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>DT Didier Deschamps</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>1442153500.png</t>
+  </si>
+  <si>
+    <t>1442153514.png</t>
+  </si>
+  <si>
+    <t>1442153543.png</t>
+  </si>
+  <si>
+    <t>1442153558.png</t>
+  </si>
+  <si>
+    <t>1442153578.png</t>
+  </si>
+  <si>
+    <t>1442153740.png</t>
+  </si>
+  <si>
+    <t>1442153769.png</t>
+  </si>
+  <si>
+    <t>1442153920.png</t>
+  </si>
+  <si>
+    <t>1442153965.png</t>
+  </si>
+  <si>
+    <t>1442153978.png</t>
+  </si>
+  <si>
+    <t>1442153993.png</t>
+  </si>
+  <si>
+    <t>1442154004.png</t>
+  </si>
+  <si>
+    <t>1442157021.png</t>
+  </si>
+  <si>
+    <t>1442157042.png</t>
+  </si>
+  <si>
+    <t>1442157061.png</t>
+  </si>
+  <si>
+    <t>1442157377.png</t>
+  </si>
+  <si>
+    <t>1442157398.png</t>
+  </si>
+  <si>
+    <t>1442157465.png</t>
+  </si>
+  <si>
+    <t>1442157538.png</t>
+  </si>
+  <si>
+    <t>1442157555.png</t>
+  </si>
+  <si>
+    <t>1442158380.png</t>
+  </si>
+  <si>
+    <t>1442158410.png</t>
+  </si>
+  <si>
+    <t>1442158458.png</t>
+  </si>
+  <si>
+    <t>1442158606.png</t>
+  </si>
+  <si>
+    <t>1442158632.png</t>
+  </si>
+  <si>
+    <t>1442158666.png</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>DT Gustavo Alfaro</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Jhegson-Mendez.png</t>
+  </si>
+  <si>
+    <t>1442739826.png</t>
+  </si>
+  <si>
+    <t>1442740056.png</t>
+  </si>
+  <si>
+    <t>1442740128.png</t>
+  </si>
+  <si>
+    <t>1442740186.png</t>
+  </si>
+  <si>
+    <t>1442740796.png</t>
+  </si>
+  <si>
+    <t>1442741064.png</t>
+  </si>
+  <si>
+    <t>1442741360.png</t>
+  </si>
+  <si>
+    <t>1442742174.png</t>
+  </si>
+  <si>
+    <t>1442742197.png</t>
+  </si>
+  <si>
+    <t>1442742223.png</t>
+  </si>
+  <si>
+    <t>1442742357.png</t>
+  </si>
+  <si>
+    <t>1442742404.png</t>
+  </si>
+  <si>
+    <t>1442742544.png</t>
+  </si>
+  <si>
+    <t>1442742592.png</t>
+  </si>
+  <si>
+    <t>1442742632.png</t>
+  </si>
+  <si>
+    <t>1442742652.png</t>
+  </si>
+  <si>
+    <t>1442742805.png</t>
+  </si>
+  <si>
+    <t>1442742819.png</t>
+  </si>
+  <si>
+    <t>1442742836.png</t>
+  </si>
+  <si>
+    <t>1442743421.png</t>
+  </si>
+  <si>
+    <t>1442743507.png</t>
+  </si>
+  <si>
+    <t>1442743531.png</t>
+  </si>
+  <si>
+    <t>1442770365.png</t>
+  </si>
+  <si>
+    <t>1442770400.png</t>
+  </si>
+  <si>
+    <t>1442770580.png</t>
+  </si>
+  <si>
+    <t>1442774135.png</t>
+  </si>
+  <si>
+    <t>1442801367.png</t>
+  </si>
+  <si>
+    <t>DT Lionel Scaloni</t>
+  </si>
+  <si>
+    <t>Thiago Almada</t>
+  </si>
+  <si>
+    <t>Ángel Correa</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (1).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (2).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (3).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (4).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (5).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (6).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (7).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (8).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (9).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (10).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (11).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (12).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (13).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (14).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (15).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (16).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (17).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (18).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (19).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (20).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (21).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (22).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (23).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (24).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (25).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022 (26).png</t>
+  </si>
+  <si>
+    <t>Uruguay-Portraits-FIFA-World-Cup-Qatar-2022.png</t>
+  </si>
+  <si>
+    <t>DT Diego Alonso</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>1441997286.png</t>
+  </si>
+  <si>
+    <t>1441997998.png</t>
+  </si>
+  <si>
+    <t>1441998068.png</t>
+  </si>
+  <si>
+    <t>1441998139.png</t>
+  </si>
+  <si>
+    <t>1441998281.png</t>
+  </si>
+  <si>
+    <t>1441998337.png</t>
+  </si>
+  <si>
+    <t>1441998435.png</t>
+  </si>
+  <si>
+    <t>1441998552.png</t>
+  </si>
+  <si>
+    <t>1441998615.png</t>
+  </si>
+  <si>
+    <t>1441998818.png</t>
+  </si>
+  <si>
+    <t>1441998982.png</t>
+  </si>
+  <si>
+    <t>1441999104.png</t>
+  </si>
+  <si>
+    <t>1441999220.png</t>
+  </si>
+  <si>
+    <t>1441999316.png</t>
+  </si>
+  <si>
+    <t>1441999347.png</t>
+  </si>
+  <si>
+    <t>1441999714.png</t>
+  </si>
+  <si>
+    <t>1442000050.png</t>
+  </si>
+  <si>
+    <t>1442000110.png</t>
+  </si>
+  <si>
+    <t>1442000260.png</t>
+  </si>
+  <si>
+    <t>1442000347.png</t>
+  </si>
+  <si>
+    <t>1442000468.png</t>
+  </si>
+  <si>
+    <t>1442000541.png</t>
+  </si>
+  <si>
+    <t>1442000584.png</t>
+  </si>
+  <si>
+    <t>1442000786.png</t>
+  </si>
+  <si>
+    <t>1442000878.png</t>
+  </si>
+  <si>
+    <t>1442001005.png</t>
+  </si>
+  <si>
+    <t>1442001097.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF03122B"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF03122B"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4134,9 +4410,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4171,15 +4455,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="datos15" connectionId="7" xr16:uid="{0C9D521E-C8C1-444C-B74C-D763AABCE0CF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="datos13" connectionId="5" xr16:uid="{FE4F447B-DE76-8F45-81A1-336266AFCCCB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="datos14" connectionId="6" xr16:uid="{E9E53808-6205-4B4B-BD0D-4DD5551FB9CA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="datos15" connectionId="7" xr16:uid="{0C9D521E-C8C1-444C-B74C-D763AABCE0CF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4579,10 +4863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A331F6-6348-124F-BE8B-5F158A3BF35D}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4889,8 +5173,23 @@
         <v>53</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5211,9 +5510,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50A9508-08DE-5F43-866C-8004D620FF0A}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5519,8 +5820,20 @@
         <v>409</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5843,7 +6156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8AE733-CA30-824E-A2F6-91D33BB9E427}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6155,6 +6470,323 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C04C6E-1808-CE4E-8AD4-68A4913BC1F4}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>588</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>594</v>
+      </c>
+      <c r="B16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>595</v>
+      </c>
+      <c r="B17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>596</v>
+      </c>
+      <c r="B18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>597</v>
+      </c>
+      <c r="B19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>599</v>
+      </c>
+      <c r="B20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>600</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>602</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>603</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>604</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>605</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>607</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9B8AA4-CAAA-DA42-898F-025D6CA2DAA1}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -6469,7 +7101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5763A-B919-C54E-97B7-6030BE320ED0}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -6776,310 +7408,6 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>575</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C04C6E-1808-CE4E-8AD4-68A4913BC1F4}">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>579</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>581</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>582</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>583</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>584</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>585</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>586</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>588</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>589</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>590</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>591</v>
-      </c>
-      <c r="B14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>593</v>
-      </c>
-      <c r="B15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>594</v>
-      </c>
-      <c r="B16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>595</v>
-      </c>
-      <c r="B17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>596</v>
-      </c>
-      <c r="B18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>597</v>
-      </c>
-      <c r="B19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>599</v>
-      </c>
-      <c r="B20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>600</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>602</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>603</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>604</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>605</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>607</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
         <v>575</v>
       </c>
     </row>
@@ -8035,15 +8363,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CA56CA-4ADC-0941-8954-D8F9FF861082}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83:E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
@@ -8074,38 +8402,38 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1222</v>
+        <v>1225</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="C2" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(B2,C2)</f>
-        <v>DT France.jpg</v>
+        <v>DT Gustavo Alfaro.png</v>
       </c>
       <c r="E2" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B3" t="s">
-        <v>576</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE(B3,C3)</f>
-        <v>Hugo Lloris.jpg</v>
+        <f t="shared" ref="D3:D66" si="0">CONCATENATE(B3,C3)</f>
+        <v>Hernán Galíndez.png</v>
       </c>
       <c r="E3" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
@@ -8113,20 +8441,20 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B4" t="s">
-        <v>579</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D28" si="0">CONCATENATE(B4,C4)</f>
-        <v>Alphonse Aréola.jpg</v>
+        <f t="shared" si="0"/>
+        <v>Moisés Ramírez.png</v>
       </c>
       <c r="E4" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>576</v>
@@ -8134,20 +8462,20 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B5" t="s">
-        <v>577</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>Steve Mandanda.jpg</v>
+        <v>Alexander Domínguez.png</v>
       </c>
       <c r="E5" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>577</v>
@@ -8155,20 +8483,20 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D6" t="str">
-        <f>CONCATENATE(B6,C6)</f>
-        <v>Lucas Hernández.jpg</v>
+        <f t="shared" si="0"/>
+        <v>Carlos Gruezo.png</v>
       </c>
       <c r="E6" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>579</v>
@@ -8176,20 +8504,20 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B7" t="s">
-        <v>1230</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D7" t="str">
-        <f>CONCATENATE(B7,C7)</f>
-        <v>Randal Kolo Muani.jpg</v>
+        <f t="shared" si="0"/>
+        <v>Jeremy Sarmiento.png</v>
       </c>
       <c r="E7" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>581</v>
@@ -8200,17 +8528,17 @@
         <v>1231</v>
       </c>
       <c r="B8" t="s">
-        <v>589</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>Benjamin Pavard.jpg</v>
+        <v>Piero Hincapié.png</v>
       </c>
       <c r="E8" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>582</v>
@@ -8221,17 +8549,17 @@
         <v>1232</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>Theo Hernández.jpg</v>
+        <v>Ángel Mena.png</v>
       </c>
       <c r="E9" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>583</v>
@@ -8242,17 +8570,17 @@
         <v>1233</v>
       </c>
       <c r="B10" t="s">
-        <v>591</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE(B10,C10)</f>
-        <v>Eduardo Camavinga.jpg</v>
+        <f t="shared" si="0"/>
+        <v>Gonzalo Plata.png</v>
       </c>
       <c r="E10" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>584</v>
@@ -8263,17 +8591,17 @@
         <v>1234</v>
       </c>
       <c r="B11" t="s">
-        <v>588</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE(B11,C11)</f>
-        <v>William Saliba.jpg</v>
+        <f t="shared" si="0"/>
+        <v>Ayrton Preciado.png</v>
       </c>
       <c r="E11" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>585</v>
@@ -8284,17 +8612,17 @@
         <v>1235</v>
       </c>
       <c r="B12" t="s">
-        <v>596</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>Youssouf Fofana.jpg</v>
+        <v>Enner Valencia.png</v>
       </c>
       <c r="E12" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>586</v>
@@ -8305,17 +8633,17 @@
         <v>1236</v>
       </c>
       <c r="B13" t="s">
-        <v>1237</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>Axel Disasi.jpg</v>
+        <v>Michael Estrada.png</v>
       </c>
       <c r="E13" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>588</v>
@@ -8323,20 +8651,20 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B14" t="s">
-        <v>597</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>Mattéo Guendouzi.jpg</v>
+        <v>Robert Arboleda.png</v>
       </c>
       <c r="E14" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>589</v>
@@ -8344,20 +8672,20 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B15" t="s">
-        <v>584</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>Dayot Upamecano.jpg</v>
+        <v>Diego Palacios.png</v>
       </c>
       <c r="E15" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>590</v>
@@ -8365,20 +8693,20 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B16" t="s">
-        <v>595</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>Adrien Rabiot.jpg</v>
+        <v>Félix Torres.png</v>
       </c>
       <c r="E16" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>591</v>
@@ -8386,20 +8714,20 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B17" t="s">
-        <v>582</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>Jules Koundé.jpg</v>
+        <v>Xavier Arreaga.png</v>
       </c>
       <c r="E17" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>593</v>
@@ -8407,20 +8735,20 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B18" t="s">
-        <v>585</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>Ibrahima Konaté.jpg</v>
+        <v>José Cifuentes.png</v>
       </c>
       <c r="E18" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>594</v>
@@ -8428,20 +8756,20 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B19" t="s">
-        <v>599</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>Jordan Veretout.jpg</v>
+        <v>Jackson Porozo.png</v>
       </c>
       <c r="E19" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>595</v>
@@ -8449,20 +8777,20 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B20" t="s">
-        <v>594</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>Kingsley Coman.jpg</v>
+        <v>Kevin Rodríguez.png</v>
       </c>
       <c r="E20" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>596</v>
@@ -8470,20 +8798,20 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B21" t="s">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>Aurélien Tchouaméni.jpg</v>
+        <v>Romario Ibarra.png</v>
       </c>
       <c r="E21" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>597</v>
@@ -8491,20 +8819,20 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B22" t="s">
-        <v>603</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>Ousmane Dembélé.jpg</v>
+        <v>Pervis Estupiñán.png</v>
       </c>
       <c r="E22" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>599</v>
@@ -8512,20 +8840,20 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B23" t="s">
-        <v>581</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>Raphael Varane.jpg</v>
+        <v>Alan Franco.png</v>
       </c>
       <c r="E23" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>600</v>
@@ -8533,20 +8861,20 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B24" t="s">
-        <v>604</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>Olivier Giroud.jpg</v>
+        <v>Djorkaeff Reasco.png</v>
       </c>
       <c r="E24" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>602</v>
@@ -8554,20 +8882,20 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B25" t="s">
-        <v>1250</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>Karim Benzema.jpg</v>
+        <v>Angelo Preciado.png</v>
       </c>
       <c r="E25" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>603</v>
@@ -8575,20 +8903,20 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
         <v>1251</v>
-      </c>
-      <c r="B26" t="s">
-        <v>602</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1223</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>Antoine Griezmann.jpg</v>
+        <v>Moisés Caicedo.png</v>
       </c>
       <c r="E26" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>604</v>
@@ -8596,20 +8924,20 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B27" t="s">
-        <v>600</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>Kylian Mbappé.jpg</v>
+        <v>William Pacho.png</v>
       </c>
       <c r="E27" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>605</v>
@@ -8617,27 +8945,1487 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B28" t="s">
-        <v>605</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>Marcus Thuram.jpg</v>
+        <v>Jhegson Méndez.png</v>
       </c>
       <c r="E28" t="s">
-        <v>1224</v>
-      </c>
+        <v>1253</v>
+      </c>
+      <c r="F28" s="4"/>
       <c r="L28" s="1" t="s">
         <v>607</v>
       </c>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>DT Lionel Scaloni.png</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B30" t="s">
+        <v>377</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Franco Armani.png</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B31" t="s">
+        <v>373</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Emiliano Martínez.png</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolás Tagliafico.png</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulo Dybala.png</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Alejandro Gómez.png</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolás Otamendi.png</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B36" t="s">
+        <v>394</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Rodrigo De Paul.png</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>Germán Pezzella.png</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B38" t="s">
+        <v>392</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Leandro Paredes.png</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B39" t="s">
+        <v>398</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Ángel Di María.png</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B40" t="s">
+        <v>405</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Lautaro Martínez.png</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B41" t="s">
+        <v>396</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Alexis MacAllister.png</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B42" t="s">
+        <v>385</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Cristian Romero.png</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>Nahuel Molina Lucero.png</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B44" t="s">
+        <v>391</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Juan Foyth.png</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B45" t="s">
+        <v>395</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>Exequiel Palacios.png</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B46" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Gonzalo Montiel.png</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B47" t="s">
+        <v>388</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Marcos Acuña.png</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>Guido Rodriguez.png</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B49" t="s">
+        <v>397</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>Enzo Fernández.png</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B50" t="s">
+        <v>404</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>Julián Álvarez.png</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>Thiago Almada.png</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>Ángel Correa.png</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B53" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>Lionel Messi.png</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B54" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>Gerónimo Rulli.png</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B55" t="s">
+        <v>387</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>Lisandro Martínez.png</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>Sebastián Sosa.png</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>Sergio Rochet.png</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>José M. Giménez.png</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>Diego Godín.png</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>Ronald Araújo.png</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>Guillermo Varela.png</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>Mathias Olivera.png</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>Matías Viña.png</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>Sebastián Coates.png</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>Martín Cáceres.png</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>Matías Vecino.png</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D109" si="1">CONCATENATE(B67,C67)</f>
+        <v>Rodrigo Bentancur.png</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>Nicolás De la Cruz.png</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>Giorgian De Arrascaeta.png</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>Lucas Torreira.png</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>Federico Valverde.png</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>Agustín Canobbio.png</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>Manuel Ugarte.png</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>Facundo Pellistri.png</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>Luis Suárez.png</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>Darwin Núñez.png</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>Maximiliano Gómez.png</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>Facundo Torres.png</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>Edinson Cavani.png</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>José L. Rodríguez.png</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>DT Diego Alonso.png</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>Fernando Muslera .png</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>DT Didier Deschamps.png</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B84" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>Wayne Hennessey.png</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B85" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>Adam Davies.png</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>Danny Ward.png</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B87" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>Chris Gunter.png</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B88" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>Gareth Bale.png</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B89" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>Joe Allen.png</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>Aaron Ramsey.png</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B91" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>Jonny Williams.png</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B92" t="s">
+        <v>261</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>Mark Harris.png</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B93" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>Connor Roberts.png</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>Kieffer Moore.png</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B95" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>Ben Davies.png</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B96" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>Joe Rodon.png</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>Rubin Colwill.png</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B98" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>Sorba Thomas.png</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B99" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>Neco Williams.png</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B100" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>Chris Mepham.png</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B101" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethan Ampadu.png</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B102" t="s">
+        <v>227</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>Ben Cabango.png</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B103" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>Brennan Johnson.png</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B104" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>Tom Lockyer.png</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B105" t="s">
+        <v>252</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>Harry Wilson.png</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B106" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>Dylan Levitt.png</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B107" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>Joe Morrell.png</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B108" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>Matt Smith.png</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B109" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>Dan James.png</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10850,7 +12638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA287EE-7DAB-D24E-A308-077F41A071BE}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11795,8 +13583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98A52C0-EEDB-9B42-88F2-6E96399AE67C}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12105,6 +13893,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -13057,10 +14846,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E622FC46-CD29-0E4B-8298-C3BE5E209CE1}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13367,8 +15156,20 @@
         <v>64</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -13376,8 +15177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4063EBC9-F5FD-514F-9769-680D74335386}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14323,13 +16124,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AC6503-06C2-6844-8F99-42095C45A771}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A28" sqref="A2:A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -14631,8 +16434,20 @@
         <v>264</v>
       </c>
     </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/Data_worldCup/Selecciones_mundial2022.xlsx
+++ b/Data_worldCup/Selecciones_mundial2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelozurita/Repositorios_GitHub/Group_Slytheryn/Data_worldCup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F3264D-2ADA-8F48-BCD6-DE070E974BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F4B860-AAC8-9A41-8F5F-E446EFD28733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="14" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="14" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecuador" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,20 @@
     <definedName name="datos8" localSheetId="7">'IR Iran'!$A$1:$C$26</definedName>
     <definedName name="datos9" localSheetId="8">'Saudi Arabia'!$A$1:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -10897,7 +10910,7 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -12180,7 +12193,7 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
